--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -100,6 +102,931 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Georgia Population</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1900 - 1990</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2216331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2609121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2895832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2908506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3123723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3444578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3943116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4589575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5463105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6478216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="503862192"/>
+        <c:axId val="503867680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503862192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503867680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503867680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503862192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,167 +1294,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1990</v>
-      </c>
       <c r="B1" s="1">
-        <v>1980</v>
+        <v>1900</v>
       </c>
       <c r="C1" s="1">
-        <v>1970</v>
+        <v>1910</v>
       </c>
       <c r="D1" s="1">
-        <v>1960</v>
+        <v>1920</v>
       </c>
       <c r="E1" s="1">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="F1" s="1">
         <v>1940</v>
       </c>
       <c r="G1" s="1">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="H1" s="1">
-        <v>1920</v>
+        <v>1960</v>
       </c>
       <c r="I1" s="1">
-        <v>1910</v>
+        <v>1970</v>
       </c>
       <c r="J1" s="1">
-        <v>1900</v>
+        <v>1980</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1990</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>248709873</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>226545805</v>
+        <v>2216331</v>
       </c>
       <c r="C2" s="1">
-        <v>203211926</v>
+        <v>2609121</v>
       </c>
       <c r="D2" s="1">
-        <v>179323175</v>
+        <v>2895832</v>
       </c>
       <c r="E2" s="1">
-        <v>151325798</v>
+        <v>2908506</v>
       </c>
       <c r="F2" s="1">
-        <v>132164569</v>
+        <v>3123723</v>
       </c>
       <c r="G2" s="1">
-        <v>123202624</v>
+        <v>3444578</v>
       </c>
       <c r="H2" s="1">
-        <v>106021537</v>
+        <v>3943116</v>
       </c>
       <c r="I2" s="1">
-        <v>92228496</v>
+        <v>4589575</v>
       </c>
       <c r="J2" s="1">
-        <v>76212168</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>5463105</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6478216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6478216</v>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>5463105</v>
+        <v>76212168</v>
       </c>
       <c r="C3" s="1">
-        <v>4589575</v>
+        <v>92228496</v>
       </c>
       <c r="D3" s="1">
-        <v>3943116</v>
+        <v>106021537</v>
       </c>
       <c r="E3" s="1">
-        <v>3444578</v>
+        <v>123202624</v>
       </c>
       <c r="F3" s="1">
-        <v>3123723</v>
+        <v>132164569</v>
       </c>
       <c r="G3" s="1">
-        <v>2908506</v>
+        <v>151325798</v>
       </c>
       <c r="H3" s="1">
-        <v>2895832</v>
+        <v>179323175</v>
       </c>
       <c r="I3" s="1">
-        <v>2609121</v>
+        <v>203211926</v>
       </c>
       <c r="J3" s="1">
-        <v>2216331</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
+        <v>226545805</v>
+      </c>
+      <c r="K3" s="1">
+        <v>248709873</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f>A3/A2</f>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/B3</f>
+        <v>2.9081064850431756E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/C3</f>
+        <v>2.82897489730289E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/D3</f>
+        <v>2.7313620250572296E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>E2/E3</f>
+        <v>2.3607500437653015E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F2/F3</f>
+        <v>2.363510147715913E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>G2/G3</f>
+        <v>2.2762662054489877E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>H2/H3</f>
+        <v>2.1988881247501892E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I2/I3</f>
+        <v>2.2585165597023081E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <f>J2/J3</f>
+        <v>2.4114792149870088E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>K2/K3</f>
         <v>2.6047281203026469E-2</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:J4" si="0">B3/B2</f>
-        <v>2.4114792149870088E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2585165597023081E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1988881247501892E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2762662054489877E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.363510147715913E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3607500437653015E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7313620250572296E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.82897489730289E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9081064850431756E-2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -125,7 +125,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -138,16 +138,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Georgia Population</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Georgia Population, in millions</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>1900 - 1990</a:t>
             </a:r>
           </a:p>
@@ -167,7 +167,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -217,9 +217,12 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -227,6 +230,153 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0868418744640572E-2"/>
+                  <c:y val="-3.7545834115136352E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4998397877178598E-2"/>
+                  <c:y val="-3.3496665733019834E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Data!$B$1:$K$1</c:f>
@@ -317,11 +467,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503862192"/>
-        <c:axId val="503867680"/>
+        <c:axId val="376048232"/>
+        <c:axId val="376048624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503862192"/>
+        <c:axId val="376048232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503867680"/>
+        <c:crossAx val="376048624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,13 +522,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503867680"/>
+        <c:axId val="376048624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -409,7 +559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503862192"/>
+        <c:crossAx val="376048232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,7 +1145,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1006,7 +1156,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1415,43 +1565,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>B2/B3</f>
+        <f t="shared" ref="B4:K4" si="0">B2/B3</f>
         <v>2.9081064850431756E-2</v>
       </c>
       <c r="C4" s="2">
-        <f>C2/C3</f>
+        <f t="shared" si="0"/>
         <v>2.82897489730289E-2</v>
       </c>
       <c r="D4" s="2">
-        <f>D2/D3</f>
+        <f t="shared" si="0"/>
         <v>2.7313620250572296E-2</v>
       </c>
       <c r="E4" s="2">
-        <f>E2/E3</f>
+        <f t="shared" si="0"/>
         <v>2.3607500437653015E-2</v>
       </c>
       <c r="F4" s="2">
-        <f>F2/F3</f>
+        <f t="shared" si="0"/>
         <v>2.363510147715913E-2</v>
       </c>
       <c r="G4" s="2">
-        <f>G2/G3</f>
+        <f t="shared" si="0"/>
         <v>2.2762662054489877E-2</v>
       </c>
       <c r="H4" s="2">
-        <f>H2/H3</f>
+        <f t="shared" si="0"/>
         <v>2.1988881247501892E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>I2/I3</f>
+        <f t="shared" si="0"/>
         <v>2.2585165597023081E-2</v>
       </c>
       <c r="J4" s="2">
-        <f>J2/J3</f>
+        <f t="shared" si="0"/>
         <v>2.4114792149870088E-2</v>
       </c>
       <c r="K4" s="2">
-        <f>K2/K3</f>
+        <f t="shared" si="0"/>
         <v>2.6047281203026469E-2</v>
       </c>
     </row>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>US</t>
   </si>
@@ -34,7 +34,13 @@
     <t>GA</t>
   </si>
   <si>
-    <t>GA %</t>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>% Increase</t>
+  </si>
+  <si>
+    <t>GA % of USA</t>
   </si>
 </sst>
 </file>
@@ -78,12 +84,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -420,7 +429,7 @@
             <c:numRef>
               <c:f>Data!$B$2:$K$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2216331</c:v>
@@ -1442,18 +1451,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1494,34 +1502,34 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2216331</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>2609121</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>2895832</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>2908506</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>3123723</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>3444578</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>3943116</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>4589575</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>5463105</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>6478216</v>
       </c>
     </row>
@@ -1529,40 +1537,40 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>76212168</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>92228496</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>106021537</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>123202624</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>132164569</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>151325798</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>179323175</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>203211926</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>226545805</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>248709873</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:K4" si="0">B2/B3</f>
@@ -1603,6 +1611,89 @@
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>2.6047281203026469E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <f>C2-B2</f>
+        <v>392790</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:K5" si="1">D2-C2</f>
+        <v>286711</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>12674</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>215217</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>320855</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>498538</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>646459</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>873530</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>1015111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f>C2/B2-1</f>
+        <v>0.17722533321963185</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:J6" si="2">D2/C2-1</f>
+        <v>0.10988796610046059</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3766351086664823E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3995721514757085E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10271557369203355</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14473122687307405</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1639462293272631</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19032916991224669</v>
+      </c>
+      <c r="K6" s="2">
+        <f>K2/J2-1</f>
+        <v>0.18581209769901919</v>
       </c>
     </row>
   </sheetData>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>US</t>
   </si>
@@ -42,12 +42,15 @@
   <si>
     <t>GA % of USA</t>
   </si>
+  <si>
+    <t>AL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +64,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,6 +104,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +114,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB3B3"/>
+      <color rgb="FFFF8181"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -194,7 +212,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.709665138011595E-2"/>
+          <c:y val="0.14397369769020929"/>
+          <c:w val="0.86601690173343715"/>
+          <c:h val="0.79051623842027308"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -244,9 +272,7 @@
               <c:idx val="1"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -271,9 +297,7 @@
               <c:idx val="5"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -466,6 +490,238 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFB3B3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1828697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2138093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2348174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2646248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2832961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3061743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3266740</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3444165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3893888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4040587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -476,11 +732,561 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="376048232"/>
-        <c:axId val="376048624"/>
+        <c:axId val="128561128"/>
+        <c:axId val="128567008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>US</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$1:$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1910</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1920</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1930</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1940</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1960</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1970</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$3:$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>76212168</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92228496</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>106021537</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>123202624</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>132164569</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>151325798</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>179323175</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>203211926</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>226545805</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>248709873</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GA % of USA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$1:$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1910</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1920</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1930</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1940</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1960</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1970</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2.9081064850431756E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.82897489730289E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.7313620250572296E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.3607500437653015E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.363510147715913E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.2762662054489877E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.1988881247501892E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2585165597023081E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4114792149870088E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.6047281203026469E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Delta</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$1:$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1910</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1920</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1930</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1940</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1960</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1970</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="1">
+                        <c:v>392790</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>286711</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12674</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>215217</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320855</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>498538</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>646459</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>873530</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1015111</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Increase</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$1:$K$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1910</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1920</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1930</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1940</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1960</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1970</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$B$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="1">
+                        <c:v>0.17722533321963185</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.10988796610046059</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3766351086664823E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.3995721514757085E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.10271557369203355</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.14473122687307405</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.1639462293272631</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.19032916991224669</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.18581209769901919</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="376048232"/>
+        <c:axId val="128561128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376048624"/>
+        <c:crossAx val="128567008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376048624"/>
+        <c:axId val="128567008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +1374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376048232"/>
+        <c:crossAx val="128561128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,6 +1410,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1165,7 +1972,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8654143" cy="6272893"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1186,6 +1993,153 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91978</cdr:x>
+      <cdr:y>0.19062</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98901</cdr:x>
+      <cdr:y>0.2118</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7972425" y="1200150"/>
+          <a:ext cx="600075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GA</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91136</cdr:x>
+      <cdr:y>0.46798</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98059</cdr:x>
+      <cdr:y>0.48916</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7899400" y="2946400"/>
+          <a:ext cx="600075" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AL</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1451,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,6 +2649,44 @@
         <f>K2/J2-1</f>
         <v>0.18581209769901919</v>
       </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1828697</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2138093</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2348174</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2646248</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2832961</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3061743</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3266740</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3444165</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3893888</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4040587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -166,7 +166,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Georgia Population, in millions</a:t>
+              <a:t>GA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> and AL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t> Population, in millions</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -217,9 +225,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.709665138011595E-2"/>
+          <c:x val="4.9001413284877858E-2"/>
           <c:y val="0.14397369769020929"/>
-          <c:w val="0.86601690173343715"/>
+          <c:w val="0.90411213982867511"/>
           <c:h val="0.79051623842027308"/>
         </c:manualLayout>
       </c:layout>
@@ -279,18 +287,14 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -304,9 +308,7 @@
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -334,8 +336,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.4998397877178598E-2"/>
-                  <c:y val="-3.3496665733019834E-2"/>
+                  <c:x val="-6.3789564765942719E-2"/>
+                  <c:y val="-3.1479544633320228E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -533,45 +535,35 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -732,8 +724,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128561128"/>
-        <c:axId val="128567008"/>
+        <c:axId val="361138488"/>
+        <c:axId val="361140840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -880,7 +872,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$4</c15:sqref>
@@ -921,7 +913,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -966,7 +958,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$4:$K$4</c15:sqref>
@@ -1018,7 +1010,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$5</c15:sqref>
@@ -1059,7 +1051,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -1104,7 +1096,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$5:$K$5</c15:sqref>
@@ -1153,7 +1145,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$6</c15:sqref>
@@ -1194,7 +1186,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -1239,7 +1231,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$6:$K$6</c15:sqref>
@@ -1286,7 +1278,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128561128"/>
+        <c:axId val="361138488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128567008"/>
+        <c:crossAx val="361140840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,44 +1329,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128567008"/>
+        <c:axId val="361140840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="128561128"/>
+        <c:crossAx val="361138488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,7 +1926,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>US</t>
   </si>
@@ -45,12 +45,15 @@
   <si>
     <t>AL</t>
   </si>
+  <si>
+    <t>AL % of USA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +67,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -103,9 +100,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,9 +564,7 @@
               <c:idx val="8"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
@@ -724,8 +716,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361138488"/>
-        <c:axId val="361140840"/>
+        <c:axId val="340292120"/>
+        <c:axId val="340297216"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1278,7 +1270,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361138488"/>
+        <c:axId val="340292120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361140840"/>
+        <c:crossAx val="340297216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361140840"/>
+        <c:axId val="340297216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1331,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361138488"/>
+        <c:crossAx val="340292120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1926,7 +1918,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1937,7 +1929,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2372,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2643,49 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B7/B3</f>
+        <v>2.3994816680716916E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:K8" si="3">C7/C3</f>
+        <v>2.3182563879172443E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2148084874491113E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1478828243138716E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1435101869094735E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0232789388627576E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8217054209529807E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6948636174040296E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7188082560169234E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6246186575793877E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>US</t>
   </si>
@@ -491,7 +491,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$A$7</c:f>
+              <c:f>Data!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,7 +667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$7:$K$7</c:f>
+              <c:f>Data!$B$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2362,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:K8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,83 +2608,135 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1828697</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2138093</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2348174</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2646248</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2832961</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3061743</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3266740</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3444165</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3893888</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4040587</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1828697</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2138093</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2348174</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2646248</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2832961</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3061743</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3266740</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3444165</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3893888</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4040587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f>B7/B3</f>
+      <c r="B9" s="2">
+        <f>B8/B3</f>
         <v>2.3994816680716916E-2</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:K8" si="3">C7/C3</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:K9" si="3">C8/C3</f>
         <v>2.3182563879172443E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f t="shared" si="3"/>
         <v>2.2148084874491113E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>2.1478828243138716E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="3"/>
         <v>2.1435101869094735E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>2.0232789388627576E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>1.8217054209529807E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
         <v>1.6948636174040296E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>1.7188082560169234E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>1.6246186575793877E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C8-B8</f>
+        <v>309396</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:K10" si="4">D8-C8</f>
+        <v>210081</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>298074</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>186713</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
+        <v>228782</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>204997</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
+        <v>177425</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
+        <v>449723</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>146699</v>
       </c>
     </row>
   </sheetData>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -2365,7 +2365,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>US</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>AL % of USA</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -321,9 +323,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -342,9 +342,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
@@ -387,7 +385,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -607,7 +604,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -716,8 +712,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="340292120"/>
-        <c:axId val="340297216"/>
+        <c:axId val="294301160"/>
+        <c:axId val="363136592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1270,7 +1266,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="340292120"/>
+        <c:axId val="294301160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340297216"/>
+        <c:crossAx val="363136592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="340297216"/>
+        <c:axId val="363136592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1327,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="340292120"/>
+        <c:crossAx val="294301160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2362,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,6 +2733,127 @@
       <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>146699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2020616</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2184789</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2337885</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2616556</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2915841</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3291718</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3567089</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3923687</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4591120</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4877185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B13/B3</f>
+        <v>2.6513036605913115E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:K14" si="5">C13/C3</f>
+        <v>2.3688871604281611E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2051038554553308E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1237826882648213E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2062198833334826E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1752523650990428E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.989195763458906E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9308350042408436E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.026574714106933E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9609937237996176E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <f>C13-B13</f>
+        <v>164173</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:K15" si="6">D13-C13</f>
+        <v>153096</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="6"/>
+        <v>278671</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="6"/>
+        <v>299285</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="6"/>
+        <v>375877</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
+        <v>275371</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="6"/>
+        <v>356598</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="6"/>
+        <v>667433</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="6"/>
+        <v>286065</v>
       </c>
     </row>
   </sheetData>

--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -185,6 +184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -323,7 +323,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -342,7 +344,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0.00,,\ &quot;M&quot;" sourceLinked="0"/>
@@ -385,6 +389,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -604,6 +609,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -696,6 +702,220 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4040587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="44450" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00,,&quot;M&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2020616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2184789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2337885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2616556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2915841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3291718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3567089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3923687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4591120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4877185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +1080,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$4</c15:sqref>
@@ -901,7 +1121,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -946,7 +1166,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$4:$K$4</c15:sqref>
@@ -998,7 +1218,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$5</c15:sqref>
@@ -1039,7 +1259,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -1084,7 +1304,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$5:$K$5</c15:sqref>
@@ -1133,7 +1353,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$A$6</c15:sqref>
@@ -1174,7 +1394,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$1:$K$1</c15:sqref>
@@ -1219,7 +1439,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$B$6:$K$6</c15:sqref>
@@ -1914,7 +2134,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1925,7 +2145,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8654143" cy="6272893"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2087,6 +2307,111 @@
               </a:solidFill>
             </a:rPr>
             <a:t>AL</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90996</cdr:x>
+      <cdr:y>0.37035</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97919</cdr:x>
+      <cdr:y>0.39153</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7874907" y="2323193"/>
+          <a:ext cx="599126" cy="132860"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TN</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2360,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,16 +3185,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ga_population.xlsx
+++ b/ga_population.xlsx
@@ -166,11 +166,19 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
-              <a:t> and AL</a:t>
+              <a:t>, AL</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t> Population, in millions</a:t>
+              <a:t> and TN Population</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>millions)</a:t>
             </a:r>
           </a:p>
           <a:p>
